--- a/1.python/Code/test.xlsx
+++ b/1.python/Code/test.xlsx
@@ -1283,34 +1283,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>-0.1902502591728192</v>
+        <v>0.04172204122600601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8773523004570311</v>
+        <v>-1.518816940446192</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.622013713479614</v>
+        <v>0.8365413340533302</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.07924024011525106</v>
+        <v>0.7669545524896957</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9424518049507709</v>
+        <v>-0.612341251238083</v>
       </c>
       <c r="G2" t="n">
-        <v>1.024609742493221</v>
+        <v>0.2426858485728082</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.553553272263508</v>
+        <v>-0.07422126436246561</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1632929597744087</v>
+        <v>0.9216392175979208</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.191996929427113</v>
+        <v>0.9357148091381229</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7532534686689213</v>
+        <v>0.2767849732511544</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1318,34 +1318,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4369734141792245</v>
+        <v>2.994335675046559</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3295768036362177</v>
+        <v>-0.3570880265336696</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4049968528097659</v>
+        <v>-1.66535535323835</v>
       </c>
       <c r="E3" t="n">
-        <v>1.767244230066478</v>
+        <v>1.052670525087458</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.063188627657148</v>
+        <v>-0.7213886202970584</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3178615372479103</v>
+        <v>-0.07493708097636885</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.24290107067639</v>
+        <v>-1.023354606185857</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2735739230599327</v>
+        <v>0.8787141618943698</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2629223799158705</v>
+        <v>-0.249058576159658</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.873121530616471</v>
+        <v>0.007408006161680161</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1353,34 +1353,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3791264306816418</v>
+        <v>-1.06638187454984</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01661019743509018</v>
+        <v>-0.4488858102892007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08772222975973298</v>
+        <v>0.3314296361422513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.489677157319293</v>
+        <v>0.3179505615562479</v>
       </c>
       <c r="F4" t="n">
-        <v>1.298341921682945</v>
+        <v>-0.3427468927438848</v>
       </c>
       <c r="G4" t="n">
-        <v>1.057117457666878</v>
+        <v>-0.2373684538198258</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5803498763512387</v>
+        <v>1.159417018673042</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.672892120922077</v>
+        <v>-0.5782210044543453</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3800920279552623</v>
+        <v>-0.8877582527423266</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2607740097213327</v>
+        <v>-0.2320402525596613</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1388,34 +1388,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5263144972805588</v>
+        <v>1.047504086261066</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9768170402118838</v>
+        <v>-2.18716098974173</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8481756630683852</v>
+        <v>0.6399770924373868</v>
       </c>
       <c r="E5" t="n">
-        <v>2.927630891910832</v>
+        <v>-1.880155024020566</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5535269574512336</v>
+        <v>-0.3949744446262412</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8552642418016405</v>
+        <v>1.58828303846833</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2897240917117112</v>
+        <v>0.1198698511322146</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.854703964134475</v>
+        <v>1.52768853927709</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.705637699235422</v>
+        <v>-0.2196126682007474</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.886709620659075</v>
+        <v>-0.6762858854949921</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1423,34 +1423,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.155128379528654</v>
+        <v>0.4432645266019171</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5740861356972606</v>
+        <v>-0.9441060987246092</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007776088277561421</v>
+        <v>1.162021622608869</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.269538930820138</v>
+        <v>-0.2839609955644253</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8277999003551779</v>
+        <v>-0.2065995497973193</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8534105971423789</v>
+        <v>1.637980171536554</v>
       </c>
       <c r="H6" t="n">
-        <v>1.360911697464197</v>
+        <v>0.5791773456727473</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08081037442673121</v>
+        <v>-1.153857600425912</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2218972091861108</v>
+        <v>1.009240698995435</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1545561086784025</v>
+        <v>0.6793910172406497</v>
       </c>
     </row>
   </sheetData>
@@ -1703,57 +1703,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>0.3408972860869691</v>
+        <v>0.5366492909413674</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>0.9827966633592641</v>
+        <v>0.7474142212548086</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>0.05186358503141808</v>
+        <v>0.4285150417777122</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="n">
-        <v>0.4319920427150203</v>
+        <v>0.9710905429554265</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="n">
-        <v>0.1392040674010265</v>
+        <v>0.08980422955854328</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="n">
-        <v>0.03524310649387141</v>
+        <v>0.952262021258735</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="n">
-        <v>0.4235179116372334</v>
+        <v>0.969196736996001</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="n">
-        <v>0.886026221774382</v>
+        <v>0.2089631321326354</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="n">
-        <v>0.2834661594827009</v>
+        <v>0.2432911279450677</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="n">
-        <v>0.973660512210435</v>
+        <v>0.4205366833460039</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="n">
-        <v>0.09092753210796434</v>
+        <v>0.5387756698773746</v>
       </c>
     </row>
   </sheetData>
